--- a/src/cab/perm/falcon.system.job.xlsx
+++ b/src/cab/perm/falcon.system.job.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-jet/src/main/resources/plugin/jet/oob/role/ADMIN.SUPER/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/uniform-ui/vertx-ai/src/cab/perm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652632D0-4A22-D648-B005-3056E51344CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961C1E8A-A207-464C-891E-C13BD6530C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70860" yWindow="-9420" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t>permId</t>
   </si>
   <si>
-    <t>e501b47a-c08b-4c83-b12b-95ad82873e96</t>
-  </si>
-  <si>
     <t>操作基本数据</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>2c1094fc-7539-45e9-9bb6-4e9aae389e0b</t>
+  </si>
+  <si>
+    <t>#ROLE_ID#</t>
   </si>
 </sst>
 </file>
@@ -670,7 +670,7 @@
   <dimension ref="A3:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -723,24 +723,24 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="12" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="12" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -748,10 +748,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -764,13 +764,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>22</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>5</v>
@@ -779,22 +779,22 @@
         <v>4</v>
       </c>
       <c r="F12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>23</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -805,7 +805,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>1</v>
@@ -814,22 +814,22 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/src/cab/perm/falcon.system.job.xlsx
+++ b/src/cab/perm/falcon.system.job.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/uniform-ui/vertx-ai/src/cab/perm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-jet/src/main/resources/plugin/jet/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{961C1E8A-A207-464C-891E-C13BD6530C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652632D0-4A22-D648-B005-3056E51344CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="70860" yWindow="-9420" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -79,6 +79,9 @@
     <t>permId</t>
   </si>
   <si>
+    <t>e501b47a-c08b-4c83-b12b-95ad82873e96</t>
+  </si>
+  <si>
     <t>操作基本数据</t>
   </si>
   <si>
@@ -137,9 +140,6 @@
   </si>
   <si>
     <t>2c1094fc-7539-45e9-9bb6-4e9aae389e0b</t>
-  </si>
-  <si>
-    <t>#ROLE_ID#</t>
   </si>
 </sst>
 </file>
@@ -670,7 +670,7 @@
   <dimension ref="A3:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
@@ -723,24 +723,24 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="12" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -748,10 +748,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -764,13 +764,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D12" s="15" t="s">
         <v>5</v>
@@ -779,22 +779,22 @@
         <v>4</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -805,7 +805,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>1</v>
@@ -814,22 +814,22 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
